--- a/data/graph-data/mappa.xlsx
+++ b/data/graph-data/mappa.xlsx
@@ -48273,7 +48273,7 @@
         </is>
       </c>
       <c r="B6742">
-        <v>9.060000000000001</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="6743">
@@ -55172,7 +55172,7 @@
         </is>
       </c>
       <c r="B7434">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7435">
@@ -56843,7 +56843,7 @@
         </is>
       </c>
       <c r="B7602">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7603">
@@ -57467,7 +57467,7 @@
         </is>
       </c>
       <c r="B7665">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7666">
@@ -57677,7 +57677,7 @@
         </is>
       </c>
       <c r="B7686">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7687">
@@ -57887,7 +57887,7 @@
         </is>
       </c>
       <c r="B7707">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7708">
@@ -60151,7 +60151,7 @@
         </is>
       </c>
       <c r="B7934">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7935">
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="B8228">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="8229">
@@ -73372,7 +73372,7 @@
         </is>
       </c>
       <c r="B9257">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9258">
@@ -73952,7 +73952,7 @@
         </is>
       </c>
       <c r="B9315">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9316">
@@ -74162,7 +74162,7 @@
         </is>
       </c>
       <c r="B9336">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9337">
@@ -74892,7 +74892,7 @@
         </is>
       </c>
       <c r="B9409">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9410">
@@ -75392,7 +75392,7 @@
         </is>
       </c>
       <c r="B9459">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9460">
@@ -75602,7 +75602,7 @@
         </is>
       </c>
       <c r="B9480">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9481">
@@ -75942,7 +75942,7 @@
         </is>
       </c>
       <c r="B9514">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9515">
@@ -76032,7 +76032,7 @@
         </is>
       </c>
       <c r="B9523">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9524">
@@ -76722,7 +76722,7 @@
         </is>
       </c>
       <c r="B9592">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9593">
@@ -76882,7 +76882,7 @@
         </is>
       </c>
       <c r="B9608">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9609">
@@ -77292,7 +77292,7 @@
         </is>
       </c>
       <c r="B9649">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9650">
@@ -77322,7 +77322,7 @@
         </is>
       </c>
       <c r="B9652">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="9653">
@@ -77452,7 +77452,7 @@
         </is>
       </c>
       <c r="B9665">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9666">
@@ -78272,7 +78272,7 @@
         </is>
       </c>
       <c r="B9747">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9748">
@@ -78492,7 +78492,7 @@
         </is>
       </c>
       <c r="B9769">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9770">
@@ -78502,7 +78502,7 @@
         </is>
       </c>
       <c r="B9770">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9771">
@@ -88072,7 +88072,7 @@
         </is>
       </c>
       <c r="B10727">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10728">
@@ -88822,7 +88822,7 @@
         </is>
       </c>
       <c r="B10802">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10803">
@@ -89642,7 +89642,7 @@
         </is>
       </c>
       <c r="B10884">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10885">
@@ -89992,7 +89992,7 @@
         </is>
       </c>
       <c r="B10919">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10920">
@@ -90192,7 +90192,7 @@
         </is>
       </c>
       <c r="B10939">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="10940">
@@ -90642,7 +90642,7 @@
         </is>
       </c>
       <c r="B10984">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="10985">
@@ -90852,7 +90852,7 @@
         </is>
       </c>
       <c r="B11005">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/graph-data/mappa.xlsx
+++ b/data/graph-data/mappa.xlsx
@@ -90672,7 +90672,7 @@
         </is>
       </c>
       <c r="B10987">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10988">
@@ -90712,7 +90712,7 @@
         </is>
       </c>
       <c r="B10991">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10992">

--- a/data/graph-data/mappa.xlsx
+++ b/data/graph-data/mappa.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11005"/>
+  <dimension ref="A1:B11026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -89742,7 +89742,7 @@
         </is>
       </c>
       <c r="B10894">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10895">
@@ -90853,6 +90853,210 @@
       </c>
       <c r="B11005">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="11006">
+      <c r="A11006" t="inlineStr">
+        <is>
+          <t>Abruzzo</t>
+        </is>
+      </c>
+      <c r="B11006">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11007">
+      <c r="A11007" t="inlineStr">
+        <is>
+          <t>Basilicata</t>
+        </is>
+      </c>
+      <c r="B11007">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11008">
+      <c r="A11008" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="B11008">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="11009">
+      <c r="A11009" t="inlineStr">
+        <is>
+          <t>Campania</t>
+        </is>
+      </c>
+      <c r="B11009">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11010">
+      <c r="A11010" t="inlineStr">
+        <is>
+          <t>Emilia-Romagna</t>
+        </is>
+      </c>
+      <c r="B11010">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="11011">
+      <c r="A11011" t="inlineStr">
+        <is>
+          <t>Friuli Venezia Giulia</t>
+        </is>
+      </c>
+      <c r="B11011">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="11012">
+      <c r="A11012" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="11013">
+      <c r="A11013" t="inlineStr">
+        <is>
+          <t>Liguria</t>
+        </is>
+      </c>
+      <c r="B11013">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="11014">
+      <c r="A11014" t="inlineStr">
+        <is>
+          <t>Lombardia</t>
+        </is>
+      </c>
+      <c r="B11014">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11015">
+      <c r="A11015" t="inlineStr">
+        <is>
+          <t>Marche</t>
+        </is>
+      </c>
+      <c r="B11015">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11016">
+      <c r="A11016" t="inlineStr">
+        <is>
+          <t>Molise</t>
+        </is>
+      </c>
+      <c r="B11016">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11017">
+      <c r="A11017" t="inlineStr">
+        <is>
+          <t>P.A. Bolzano</t>
+        </is>
+      </c>
+      <c r="B11017">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="11018">
+      <c r="A11018" t="inlineStr">
+        <is>
+          <t>P.A. Trento</t>
+        </is>
+      </c>
+    </row>
+    <row r="11019">
+      <c r="A11019" t="inlineStr">
+        <is>
+          <t>Piemonte</t>
+        </is>
+      </c>
+      <c r="B11019">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11020">
+      <c r="A11020" t="inlineStr">
+        <is>
+          <t>Puglia</t>
+        </is>
+      </c>
+      <c r="B11020">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11021">
+      <c r="A11021" t="inlineStr">
+        <is>
+          <t>Sardegna</t>
+        </is>
+      </c>
+      <c r="B11021">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="11022">
+      <c r="A11022" t="inlineStr">
+        <is>
+          <t>Sicilia</t>
+        </is>
+      </c>
+      <c r="B11022">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11023">
+      <c r="A11023" t="inlineStr">
+        <is>
+          <t>Toscana</t>
+        </is>
+      </c>
+      <c r="B11023">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="11024">
+      <c r="A11024" t="inlineStr">
+        <is>
+          <t>Umbria</t>
+        </is>
+      </c>
+      <c r="B11024">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="11025">
+      <c r="A11025" t="inlineStr">
+        <is>
+          <t>Valle d'Aosta</t>
+        </is>
+      </c>
+      <c r="B11025">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="11026">
+      <c r="A11026" t="inlineStr">
+        <is>
+          <t>Veneto</t>
+        </is>
+      </c>
+      <c r="B11026">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
